--- a/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Familia_Ingresos Causas Por Materia_2018-Abríl.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Familia_Ingresos Causas Por Materia_2018-Abríl.xlsx
@@ -231,37 +231,37 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Alimentos Rebaja</t>
+          <t xml:space="preserve">Alimentos, Aumento</t>
         </is>
       </c>
       <c r="B4" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">Alimentos, Aumento</t>
+          <t xml:space="preserve">Alimentos, Cesacion</t>
         </is>
       </c>
       <c r="B5" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">Alimentos, Cesacion</t>
+          <t xml:space="preserve">Alimentos, Otros</t>
         </is>
       </c>
       <c r="B6" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -277,7 +277,7 @@
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">Autorizacion Salida Del Pais</t>
+          <t xml:space="preserve">Autorización Para Enajenar Bienes Raíces</t>
         </is>
       </c>
       <c r="B8" s="65">
@@ -287,7 +287,7 @@
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">Autorizaciones</t>
+          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
         </is>
       </c>
       <c r="B9" s="65">
@@ -297,17 +297,17 @@
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Compensacion Economica</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño</t>
         </is>
       </c>
       <c r="B10" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño, Declaracion</t>
         </is>
       </c>
       <c r="B11" s="65">
@@ -317,11 +317,11 @@
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño, Modificacion</t>
         </is>
       </c>
       <c r="B12" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">Divorcio Por Cese De Convivencia</t>
+          <t xml:space="preserve">Entrega Menor Y/O Especies Del Menor/Costo De Crianza Y Educacion Tasados Por El Juez (Art. 239 Cc)</t>
         </is>
       </c>
       <c r="B14" s="65">
@@ -347,7 +347,7 @@
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Entrega Menor Y/O Especies Del Menor/Costo De Crianza Y Educacion Tasados Por El Juez (Art. 239 Cc)</t>
+          <t xml:space="preserve">Infracción A La Ley Penal</t>
         </is>
       </c>
       <c r="B15" s="65">
@@ -357,11 +357,11 @@
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Infracción A La Ley Penal</t>
+          <t xml:space="preserve">Otros Asuntos De Tramitacion Ordinaria</t>
         </is>
       </c>
       <c r="B16" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -371,7 +371,7 @@
         </is>
       </c>
       <c r="B17" s="65">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -381,7 +381,7 @@
         </is>
       </c>
       <c r="B18" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="B20" s="65">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="B21" s="65">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -421,7 +421,7 @@
         </is>
       </c>
       <c r="B22" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B23" s="65">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
